--- a/budget_student_visit.xlsx
+++ b/budget_student_visit.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="20225"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="2840" yWindow="2760" windowWidth="25600" windowHeight="16060" tabRatio="500"/>
+    <workbookView xWindow="240" yWindow="240" windowWidth="25360" windowHeight="15820" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>FINANCIAL ANNEX (IN USD)</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -68,6 +68,9 @@
   </si>
   <si>
     <t>1000$/month for 3 months</t>
+  </si>
+  <si>
+    <t>miscellaneous expenses (meals, local transportation,..)</t>
   </si>
 </sst>
 </file>
@@ -236,11 +239,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -607,17 +610,17 @@
       <c r="B5" s="2"/>
     </row>
     <row r="6" spans="1:2" s="3" customFormat="1" ht="22" customHeight="1">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="17"/>
+      <c r="B6" s="18"/>
     </row>
     <row r="7" spans="1:2" s="3" customFormat="1" ht="17" customHeight="1">
       <c r="A7" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="18">
-        <v>7370</v>
+      <c r="B7" s="16">
+        <v>8970</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="3" customFormat="1" ht="8" customHeight="1">
@@ -634,7 +637,7 @@
       </c>
       <c r="B10" s="9">
         <f>B13+B17+B20</f>
-        <v>7370</v>
+        <v>8970</v>
       </c>
     </row>
     <row r="11" spans="1:2" s="3" customFormat="1" ht="8" customHeight="1">
@@ -705,7 +708,7 @@
       </c>
       <c r="B20" s="11">
         <f>SUM(B21:B27)</f>
-        <v>3370</v>
+        <v>4970</v>
       </c>
     </row>
     <row r="21" spans="1:2" s="3" customFormat="1">
@@ -725,9 +728,11 @@
       </c>
     </row>
     <row r="23" spans="1:2" s="3" customFormat="1">
-      <c r="A23" s="7"/>
+      <c r="A23" s="7" t="s">
+        <v>14</v>
+      </c>
       <c r="B23" s="13">
-        <v>0</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="24" spans="1:2" s="3" customFormat="1">
